--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -15,63 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Номер контейнера</t>
+  </si>
+  <si>
+    <t>Экспортер</t>
+  </si>
+  <si>
+    <t>Станция отправления</t>
+  </si>
+  <si>
+    <t>Погранпереход</t>
+  </si>
+  <si>
+    <t>Станция назначения</t>
+  </si>
+  <si>
+    <t>Пункт назначения</t>
+  </si>
   <si>
     <t>Дислокация</t>
   </si>
   <si>
-    <t>Экспортер</t>
-  </si>
-  <si>
-    <t>Станция отправления</t>
-  </si>
-  <si>
-    <t>Пункт назначения</t>
-  </si>
-  <si>
-    <t>Номер контейнера</t>
-  </si>
-  <si>
-    <t>Груз</t>
-  </si>
-  <si>
-    <t>Собственник</t>
-  </si>
-  <si>
-    <t>Дата растаможки</t>
-  </si>
-  <si>
-    <t>Новое место (03.04.2018 15:33)</t>
-  </si>
-  <si>
-    <t>ЛесКом</t>
+    <t>ТЛИ</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Забайкальск</t>
   </si>
   <si>
     <t>Клещиха</t>
   </si>
   <si>
-    <t>Маньчжурия</t>
-  </si>
-  <si>
-    <t>11.04.2018</t>
-  </si>
-  <si>
-    <t>ТЛИ</t>
-  </si>
-  <si>
-    <t>a12312</t>
-  </si>
-  <si>
-    <t>ЛяньМэн</t>
-  </si>
-  <si>
-    <t>Томск</t>
-  </si>
-  <si>
-    <t>Вэйда</t>
-  </si>
-  <si>
-    <t>РИС</t>
+    <t>sdfasdf (11.07.2018 19:09)</t>
   </si>
 </sst>
 </file>
@@ -417,19 +396,19 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
     <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
@@ -471,98 +450,75 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13123</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>321</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>123412</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>123</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
